--- a/reports/2022.02.22 tas-diff-add-del.xlsx
+++ b/reports/2022.02.22 tas-diff-add-del.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dompa\Documents\GitHub\tas-diff-add-del\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmpannone\Documents\GitHub\tas-diff-add-del\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FCF06DB-04C3-4C01-9225-E8449072D427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3EEA7A3-0ADA-439D-AE15-F52F0C70C56C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8724"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8772"/>
   </bookViews>
   <sheets>
     <sheet name="2022.02.22 tas-diff-add-del" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="371">
   <si>
     <t>REGION</t>
   </si>
@@ -127,7 +127,7 @@
     <t>This state funded contract is for sweeping and cleaning streets, medians, sidewalks, and pathways in Area B of the Anchorage and Eagle River Areas of the Anchorage Maintenance District.</t>
   </si>
   <si>
-    <t xml:space="preserve">(1) 2021.12.20 ADDED </t>
+    <t>(1)   [on 2022.01.18 project was added.]</t>
   </si>
   <si>
     <t>CR22 Mat-Su District NHS Preventative Maintenance CFHWY00861 / 0001733
@@ -188,7 +188,7 @@
     <t>&lt;a class=linkcopy href="http://dot.state.ak.us/creg/design/highways/Projects/00386/00386_Plans.pdf"&gt;Preliminary Plans (~9 Mb) &lt;/a&gt;&lt;img name="pdf_icon" src="/images/styls/pdf_icon.gif" width="18" height="18" border="0"&gt;</t>
   </si>
   <si>
-    <t>(1) 2021.12.20 ANTADVDT August 2022</t>
+    <t>(1)   [on 2022.01.18 the ANTADVDT changed to March 2022.]</t>
   </si>
   <si>
     <t>QUARTZ CREEK BRIDGE REPLACEMENT</t>
@@ -233,7 +233,7 @@
     <t>Resurface Cohoe Loop Road from MP 0 to 9. Includes roadside hardware and drainage improvements.</t>
   </si>
   <si>
-    <t xml:space="preserve">(1) 2021.12.20 PHONENUM </t>
+    <t>(1)   [on 2022.01.18 PHONENUM changed.]</t>
   </si>
   <si>
     <t>MEKORYUK AIRPORT SNOW REMOVAL EQUIPMENT BUILDING</t>
@@ -332,6 +332,9 @@
     <t>Surface seal taxiway</t>
   </si>
   <si>
+    <t>(1)   [on 2022.01.18 the ANTADVDT changed to February 2022.]</t>
+  </si>
+  <si>
     <t>ANC GATES B4, B6, B7, B8, &amp; B9 IMPROVEMENTS</t>
   </si>
   <si>
@@ -362,6 +365,9 @@
     <t>21-25-1-029</t>
   </si>
   <si>
+    <t>(2)   [on 2022.01.18 the ANTADVDT changed to February 2022.]; [on 2022.01.18 PHONENUM changed.]</t>
+  </si>
+  <si>
     <t>NAPASKIAK AIRPORT SNOW REMOVAL EQUIPMENT BUILDINGS</t>
   </si>
   <si>
@@ -398,6 +404,9 @@
     <t>CFAPT00882</t>
   </si>
   <si>
+    <t>(1)   [on 2022.01.18 the ANTADVDT changed to April 2022.]</t>
+  </si>
+  <si>
     <t>FUNNY RIVER RD PAVEMENT PRESERVATION</t>
   </si>
   <si>
@@ -413,6 +422,9 @@
     <t>CFHWY00132</t>
   </si>
   <si>
+    <t>(2)   [on 2022.01.18 the ANTADVDT changed to May 2022.]; [on 2022.01.18 DESCRIPTION changed.]</t>
+  </si>
+  <si>
     <t>MAT-SU BOROUGH ROAD REPAIRS - NOV 2018 EQ PERM REPAIRS (MSB)</t>
   </si>
   <si>
@@ -545,7 +557,7 @@
     <t>Improve intersections in North Pole at Santa Claus Lane and East 5th Avenue, and North Pole High School Boulevard at Old Richardson Highway and 8th Avenue.  Work will include roadside hardware and utilities.  The railroad crossings will also be improved to current standards.</t>
   </si>
   <si>
-    <t xml:space="preserve">(4) 2021.12.20 ADDLINFO ; 2021.12.20 ENGEST ; 2021.12.20 FEDNUM ; 2021.12.20 PROJNAME </t>
+    <t>(4)   [on 2022.01.18 ADDLINFO changed.]; [on 2022.01.18 ENGEST changed.]; [on 2022.01.18 FEDNUM changed.]; [on 2022.01.18 PROJNAME changed.]</t>
   </si>
   <si>
     <t>Richardson Highway MP 298 Revetment</t>
@@ -743,6 +755,9 @@
     <t>Z607350000</t>
   </si>
   <si>
+    <t>(2)   [on 2022.01.18 FEDNUM changed.]; [on 2022.01.18 PROJNAME changed.]</t>
+  </si>
+  <si>
     <t>Kotzebue Airport Runway Settlement Repair</t>
   </si>
   <si>
@@ -997,6 +1012,9 @@
     <t>SFAPT00203</t>
   </si>
   <si>
+    <t>(1)   [on 2022.01.18 DESCRIPTION changed.]</t>
+  </si>
+  <si>
     <t>FFY18 ST. PAUL AIRPORT VISUAL AID REPLACEMENT</t>
   </si>
   <si>
@@ -1058,6 +1076,9 @@
   </si>
   <si>
     <t>Z680850000</t>
+  </si>
+  <si>
+    <t>(1)   [on 2022.01.18 the ANTADVDT changed to July 2022.]</t>
   </si>
   <si>
     <t>JNU EGAN YANDUKIN INTERSECTION IMPROVEMENTS HSIP</t>
@@ -2035,8 +2056,8 @@
     <col min="6" max="6" width="65.77734375" customWidth="1"/>
     <col min="7" max="7" width="23.77734375" style="9" customWidth="1"/>
     <col min="8" max="8" width="10.77734375" customWidth="1"/>
-    <col min="9" max="12" width="15.77734375" customWidth="1"/>
-    <col min="13" max="13" width="100.77734375" customWidth="1"/>
+    <col min="9" max="13" width="15.77734375" customWidth="1"/>
+    <col min="14" max="14" width="100.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2658,8 +2679,11 @@
       <c r="D16" s="10">
         <v>44621</v>
       </c>
+      <c r="E16" t="s">
+        <v>102</v>
+      </c>
       <c r="F16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>19</v>
@@ -2668,7 +2692,7 @@
         <v>44621</v>
       </c>
       <c r="I16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2685,16 +2709,16 @@
         <v>44621</v>
       </c>
       <c r="F17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H17" s="1">
         <v>44621</v>
       </c>
       <c r="I17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2711,7 +2735,7 @@
         <v>44652</v>
       </c>
       <c r="F18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>93</v>
@@ -2720,7 +2744,7 @@
         <v>44652</v>
       </c>
       <c r="I18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2737,16 +2761,16 @@
         <v>44621</v>
       </c>
       <c r="F19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H19" s="1">
         <v>44621</v>
       </c>
       <c r="I19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2762,17 +2786,20 @@
       <c r="D20" s="10">
         <v>44621</v>
       </c>
+      <c r="E20" t="s">
+        <v>113</v>
+      </c>
       <c r="F20" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H20" s="1">
         <v>44621</v>
       </c>
       <c r="I20" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2789,16 +2816,16 @@
         <v>44621</v>
       </c>
       <c r="F21" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H21" s="1">
         <v>44621</v>
       </c>
       <c r="I21" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2814,8 +2841,11 @@
       <c r="D22" s="10">
         <v>44652</v>
       </c>
+      <c r="E22" t="s">
+        <v>55</v>
+      </c>
       <c r="F22" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>19</v>
@@ -2824,7 +2854,7 @@
         <v>44652</v>
       </c>
       <c r="I22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2841,7 +2871,7 @@
         <v>44682</v>
       </c>
       <c r="F23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G23" s="9" t="s">
         <v>19</v>
@@ -2850,7 +2880,7 @@
         <v>44682</v>
       </c>
       <c r="I23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2867,7 +2897,7 @@
         <v>44682</v>
       </c>
       <c r="F24" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>19</v>
@@ -2876,7 +2906,7 @@
         <v>44682</v>
       </c>
       <c r="I24" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2892,17 +2922,20 @@
       <c r="D25" s="10">
         <v>44835</v>
       </c>
+      <c r="E25" t="s">
+        <v>126</v>
+      </c>
       <c r="F25" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H25" s="1">
         <v>44835</v>
       </c>
       <c r="I25" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2918,8 +2951,11 @@
       <c r="D26" s="10">
         <v>44682</v>
       </c>
+      <c r="E26" t="s">
+        <v>126</v>
+      </c>
       <c r="F26" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>19</v>
@@ -2928,7 +2964,7 @@
         <v>44682</v>
       </c>
       <c r="I26" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2944,8 +2980,11 @@
       <c r="D27" s="10">
         <v>44713</v>
       </c>
+      <c r="E27" t="s">
+        <v>132</v>
+      </c>
       <c r="F27" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G27" s="9" t="s">
         <v>37</v>
@@ -2954,7 +2993,7 @@
         <v>44713</v>
       </c>
       <c r="I27" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2971,16 +3010,16 @@
         <v>44805</v>
       </c>
       <c r="F28" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H28" s="1">
         <v>44805</v>
       </c>
       <c r="I28" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2991,22 +3030,25 @@
         <v>13</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>135</v>
+        <v>139</v>
+      </c>
+      <c r="E29" t="s">
+        <v>113</v>
       </c>
       <c r="F29" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H29" s="1">
         <v>44621</v>
       </c>
       <c r="I29" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3017,22 +3059,25 @@
         <v>10</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>137</v>
+        <v>141</v>
+      </c>
+      <c r="E30" t="s">
+        <v>113</v>
       </c>
       <c r="F30" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H30" s="1">
         <v>44621</v>
       </c>
       <c r="I30" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3046,19 +3091,19 @@
         <v>28</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F31" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H31" s="1">
         <v>44743</v>
       </c>
       <c r="I31" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3069,22 +3114,22 @@
         <v>12</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F32" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H32" s="1">
         <v>44621</v>
       </c>
       <c r="I32" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3095,22 +3140,22 @@
         <v>12</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H33" s="1">
         <v>44621</v>
       </c>
       <c r="I33" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3121,22 +3166,22 @@
         <v>12</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F34" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H34" s="1">
         <v>44621</v>
       </c>
       <c r="I34" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3152,17 +3197,20 @@
       <c r="D35" s="9" t="s">
         <v>22</v>
       </c>
+      <c r="E35" t="s">
+        <v>126</v>
+      </c>
       <c r="F35" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H35" s="1">
         <v>44835</v>
       </c>
       <c r="I35" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3178,8 +3226,11 @@
       <c r="D36" s="9" t="s">
         <v>22</v>
       </c>
+      <c r="E36" t="s">
+        <v>126</v>
+      </c>
       <c r="F36" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G36" s="9" t="s">
         <v>19</v>
@@ -3188,7 +3239,7 @@
         <v>44682</v>
       </c>
       <c r="I36" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3205,7 +3256,7 @@
         <v>95</v>
       </c>
       <c r="F37" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G37" s="9" t="s">
         <v>19</v>
@@ -3214,7 +3265,7 @@
         <v>44682</v>
       </c>
       <c r="I37" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3231,16 +3282,16 @@
         <v>95</v>
       </c>
       <c r="F38" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H38" s="1">
         <v>44743</v>
       </c>
       <c r="I38" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3257,16 +3308,16 @@
         <v>95</v>
       </c>
       <c r="F39" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H39" s="1">
         <v>44743</v>
       </c>
       <c r="I39" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3283,16 +3334,16 @@
         <v>95</v>
       </c>
       <c r="F40" t="s">
+        <v>154</v>
+      </c>
+      <c r="G40" s="9" t="s">
         <v>150</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>146</v>
       </c>
       <c r="H40" s="1">
         <v>44743</v>
       </c>
       <c r="I40" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3306,19 +3357,19 @@
         <v>67</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F41" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H41" s="1">
         <v>44805</v>
       </c>
       <c r="I41" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3329,22 +3380,22 @@
         <v>11</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>39</v>
       </c>
       <c r="F42" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H42" s="1">
         <v>44621</v>
       </c>
       <c r="I42" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3355,22 +3406,22 @@
         <v>11</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>39</v>
       </c>
       <c r="F43" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H43" s="1">
         <v>44621</v>
       </c>
       <c r="I43" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3381,22 +3432,22 @@
         <v>11</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D44" s="9" t="s">
         <v>39</v>
       </c>
       <c r="F44" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H44" s="1">
         <v>44621</v>
       </c>
       <c r="I44" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3412,17 +3463,20 @@
       <c r="D45" s="9" t="s">
         <v>21</v>
       </c>
+      <c r="E45" t="s">
+        <v>126</v>
+      </c>
       <c r="F45" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H45" s="1">
         <v>44835</v>
       </c>
       <c r="I45" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3438,8 +3492,11 @@
       <c r="D46" s="9" t="s">
         <v>21</v>
       </c>
+      <c r="E46" t="s">
+        <v>126</v>
+      </c>
       <c r="F46" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G46" s="9" t="s">
         <v>19</v>
@@ -3448,7 +3505,7 @@
         <v>44682</v>
       </c>
       <c r="I46" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3462,24 +3519,24 @@
         <v>66</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F47" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H47" s="1">
         <v>44805</v>
       </c>
       <c r="I47" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>7</v>
@@ -3490,55 +3547,58 @@
       <c r="D48" s="10">
         <v>44593</v>
       </c>
+      <c r="E48" t="s">
+        <v>35</v>
+      </c>
       <c r="F48" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H48" s="1">
         <v>44593</v>
       </c>
       <c r="I48" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F49" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H49" s="1">
         <v>44562</v>
       </c>
       <c r="I49" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="J49" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="K49">
         <v>2312</v>
       </c>
       <c r="L49" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M49" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="N49" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="O49" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="P49" t="s">
         <v>62</v>
@@ -3546,37 +3606,37 @@
     </row>
     <row r="50" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F50" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H50" s="1">
         <v>44562</v>
       </c>
       <c r="I50" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="J50" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="K50">
         <v>620010</v>
       </c>
       <c r="L50" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M50" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="N50" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="P50" t="s">
         <v>91</v>
@@ -3584,43 +3644,43 @@
     </row>
     <row r="51" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E51" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F51" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H51" s="1">
         <v>44593</v>
       </c>
       <c r="I51" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="J51" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="K51" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="L51" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M51" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="N51" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="P51" t="s">
         <v>32</v>
@@ -3628,40 +3688,40 @@
     </row>
     <row r="52" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>79</v>
       </c>
       <c r="F52" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="H52" s="1">
         <v>44621</v>
       </c>
       <c r="I52" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="J52" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="K52" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="L52" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M52" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="N52" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="O52" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="P52" t="s">
         <v>24</v>
@@ -3669,40 +3729,40 @@
     </row>
     <row r="53" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>79</v>
       </c>
       <c r="F53" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="H53" s="1">
         <v>44621</v>
       </c>
       <c r="I53" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="J53" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="K53" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L53" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M53" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="N53" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="O53" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="P53" t="s">
         <v>42</v>
@@ -3710,65 +3770,68 @@
     </row>
     <row r="54" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>79</v>
       </c>
       <c r="F54" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H54" s="1">
         <v>44927</v>
       </c>
       <c r="I54" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="J54" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="K54">
         <v>645015</v>
       </c>
       <c r="L54" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M54" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="N54" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="55" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>200</v>
+        <v>204</v>
+      </c>
+      <c r="E55" t="s">
+        <v>55</v>
       </c>
       <c r="F55" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H55" s="1">
         <v>44621</v>
       </c>
       <c r="I55" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="56" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>7</v>
@@ -3780,21 +3843,21 @@
         <v>44896</v>
       </c>
       <c r="F56" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H56" s="1">
         <v>44896</v>
       </c>
       <c r="I56" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="57" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>7</v>
@@ -3806,21 +3869,21 @@
         <v>44593</v>
       </c>
       <c r="F57" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H57" s="1">
         <v>44593</v>
       </c>
       <c r="I57" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="58" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>7</v>
@@ -3832,21 +3895,21 @@
         <v>44621</v>
       </c>
       <c r="F58" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H58" s="1">
         <v>44621</v>
       </c>
       <c r="I58" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="59" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>7</v>
@@ -3858,21 +3921,21 @@
         <v>44621</v>
       </c>
       <c r="F59" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H59" s="1">
         <v>44621</v>
       </c>
       <c r="I59" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="60" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>7</v>
@@ -3884,21 +3947,21 @@
         <v>44621</v>
       </c>
       <c r="F60" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H60" s="1">
         <v>44621</v>
       </c>
       <c r="I60" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="61" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>7</v>
@@ -3910,21 +3973,21 @@
         <v>44621</v>
       </c>
       <c r="F61" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H61" s="1">
         <v>44621</v>
       </c>
       <c r="I61" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="62" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>7</v>
@@ -3936,21 +3999,21 @@
         <v>44682</v>
       </c>
       <c r="F62" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="H62" s="1">
         <v>44682</v>
       </c>
       <c r="I62" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="63" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>7</v>
@@ -3961,22 +4024,25 @@
       <c r="D63" s="10">
         <v>44621</v>
       </c>
+      <c r="E63" t="s">
+        <v>102</v>
+      </c>
       <c r="F63" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="H63" s="1">
         <v>44621</v>
       </c>
       <c r="I63" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="64" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>7</v>
@@ -3988,21 +4054,21 @@
         <v>44621</v>
       </c>
       <c r="F64" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H64" s="1">
         <v>44621</v>
       </c>
       <c r="I64" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>7</v>
@@ -4014,21 +4080,21 @@
         <v>44621</v>
       </c>
       <c r="F65" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H65" s="1">
         <v>44621</v>
       </c>
       <c r="I65" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>7</v>
@@ -4040,21 +4106,21 @@
         <v>44621</v>
       </c>
       <c r="F66" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H66" s="1">
         <v>44621</v>
       </c>
       <c r="I66" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>7</v>
@@ -4066,21 +4132,21 @@
         <v>44682</v>
       </c>
       <c r="F67" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="H67" s="1">
         <v>44682</v>
       </c>
       <c r="I67" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>7</v>
@@ -4091,22 +4157,25 @@
       <c r="D68" s="10">
         <v>44682</v>
       </c>
+      <c r="E68" t="s">
+        <v>55</v>
+      </c>
       <c r="F68" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H68" s="1">
         <v>44682</v>
       </c>
       <c r="I68" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>7</v>
@@ -4117,22 +4186,25 @@
       <c r="D69" s="10">
         <v>44652</v>
       </c>
+      <c r="E69" t="s">
+        <v>241</v>
+      </c>
       <c r="F69" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H69" s="1">
         <v>44652</v>
       </c>
       <c r="I69" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>7</v>
@@ -4143,22 +4215,25 @@
       <c r="D70" s="10">
         <v>44682</v>
       </c>
+      <c r="E70" t="s">
+        <v>55</v>
+      </c>
       <c r="F70" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="H70" s="1">
         <v>44682</v>
       </c>
       <c r="I70" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>7</v>
@@ -4169,22 +4244,25 @@
       <c r="D71" s="10">
         <v>44713</v>
       </c>
+      <c r="E71" t="s">
+        <v>55</v>
+      </c>
       <c r="F71" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="H71" s="1">
         <v>44713</v>
       </c>
       <c r="I71" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>7</v>
@@ -4196,21 +4274,21 @@
         <v>44835</v>
       </c>
       <c r="F72" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="H72" s="1">
         <v>44835</v>
       </c>
       <c r="I72" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>7</v>
@@ -4222,73 +4300,76 @@
         <v>44743</v>
       </c>
       <c r="F73" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="H73" s="1">
         <v>44743</v>
       </c>
       <c r="I73" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>253</v>
+        <v>258</v>
+      </c>
+      <c r="E74" t="s">
+        <v>55</v>
       </c>
       <c r="F74" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H74" s="1">
         <v>44621</v>
       </c>
       <c r="I74" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="F75" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H75" s="1">
         <v>44652</v>
       </c>
       <c r="I75" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>15</v>
@@ -4297,47 +4378,50 @@
         <v>42</v>
       </c>
       <c r="F76" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H76" s="1">
         <v>44621</v>
       </c>
       <c r="I76" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>259</v>
+        <v>264</v>
+      </c>
+      <c r="E77" t="s">
+        <v>55</v>
       </c>
       <c r="F77" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H77" s="1">
         <v>44682</v>
       </c>
       <c r="I77" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>15</v>
@@ -4348,338 +4432,347 @@
       <c r="D78" s="9" t="s">
         <v>42</v>
       </c>
+      <c r="E78" t="s">
+        <v>55</v>
+      </c>
       <c r="F78" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H78" s="1">
         <v>44621</v>
       </c>
       <c r="I78" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="F79" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H79" s="1">
         <v>44621</v>
       </c>
       <c r="I79" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="D80" s="9">
         <v>27563001</v>
       </c>
       <c r="F80" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H80" s="1">
         <v>44621</v>
       </c>
       <c r="I80" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="81" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>202</v>
+        <v>206</v>
+      </c>
+      <c r="E81" t="s">
+        <v>55</v>
       </c>
       <c r="F81" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H81" s="1">
         <v>44621</v>
       </c>
       <c r="I81" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="82" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="F82" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="H82" s="1">
         <v>44835</v>
       </c>
       <c r="I82" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="83" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="F83" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="H83" s="1">
         <v>44835</v>
       </c>
       <c r="I83" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="84" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F84" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H84" s="1">
         <v>44621</v>
       </c>
       <c r="I84" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="85" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F85" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H85" s="1">
         <v>44621</v>
       </c>
       <c r="I85" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="86" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>201</v>
+        <v>205</v>
+      </c>
+      <c r="E86" t="s">
+        <v>55</v>
       </c>
       <c r="F86" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H86" s="1">
         <v>44621</v>
       </c>
       <c r="I86" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="87" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="F87" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H87" s="1">
         <v>44652</v>
       </c>
       <c r="I87" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="88" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="F88" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="H88" s="1">
         <v>44652</v>
       </c>
       <c r="I88" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="89" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="F89" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="H89" s="1">
         <v>44682</v>
       </c>
       <c r="I89" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="90" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F90" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H90" s="1">
         <v>44805</v>
       </c>
       <c r="I90" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="J90" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="K90">
         <v>3267</v>
       </c>
       <c r="L90" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="M90" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="N90" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="P90" t="s">
         <v>91</v>
@@ -4687,110 +4780,110 @@
     </row>
     <row r="91" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>79</v>
       </c>
       <c r="F91" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="H91" s="1">
         <v>44621</v>
       </c>
       <c r="I91" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="J91" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="K91" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="L91" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="M91" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="N91" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="P91" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="92" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>79</v>
       </c>
       <c r="F92" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H92" s="1">
         <v>44621</v>
       </c>
       <c r="I92" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="J92" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="K92" t="s">
         <v>28</v>
       </c>
       <c r="L92" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="M92" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="93" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>79</v>
       </c>
       <c r="F93" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="H93" s="1">
         <v>44896</v>
       </c>
       <c r="I93" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="J93" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="K93" t="s">
         <v>28</v>
       </c>
       <c r="L93" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="M93" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="P93" t="s">
         <v>32</v>
@@ -4798,100 +4891,103 @@
     </row>
     <row r="94" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>79</v>
       </c>
       <c r="F94" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="H94" s="1">
         <v>44927</v>
       </c>
       <c r="I94" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="J94" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K94">
         <v>3274</v>
       </c>
       <c r="L94" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="M94" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="95" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>79</v>
       </c>
       <c r="F95" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="H95" s="1">
         <v>44927</v>
       </c>
       <c r="I95" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="J95" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="K95" t="s">
         <v>28</v>
       </c>
       <c r="L95" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="M95" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="N95" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="96" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>312</v>
+        <v>317</v>
+      </c>
+      <c r="E96" t="s">
+        <v>35</v>
       </c>
       <c r="F96" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="H96" s="1">
         <v>44896</v>
       </c>
       <c r="I96" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>7</v>
@@ -4903,21 +4999,21 @@
         <v>44593</v>
       </c>
       <c r="F97" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H97" s="1">
         <v>44593</v>
       </c>
       <c r="I97" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>7</v>
@@ -4929,21 +5025,21 @@
         <v>44593</v>
       </c>
       <c r="F98" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H98" s="1">
         <v>44593</v>
       </c>
       <c r="I98" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>7</v>
@@ -4954,22 +5050,25 @@
       <c r="D99" s="10">
         <v>44621</v>
       </c>
+      <c r="E99" t="s">
+        <v>325</v>
+      </c>
       <c r="F99" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H99" s="1">
         <v>44621</v>
       </c>
       <c r="I99" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>7</v>
@@ -4981,21 +5080,21 @@
         <v>44593</v>
       </c>
       <c r="F100" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="H100" s="1">
         <v>44593</v>
       </c>
       <c r="I100" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>7</v>
@@ -5007,21 +5106,21 @@
         <v>44593</v>
       </c>
       <c r="F101" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H101" s="1">
         <v>44593</v>
       </c>
       <c r="I101" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>7</v>
@@ -5033,21 +5132,21 @@
         <v>44652</v>
       </c>
       <c r="F102" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="H102" s="1">
         <v>44652</v>
       </c>
       <c r="I102" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B103" s="6" t="s">
         <v>7</v>
@@ -5059,21 +5158,21 @@
         <v>44652</v>
       </c>
       <c r="F103" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H103" s="1">
         <v>44652</v>
       </c>
       <c r="I103" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>7</v>
@@ -5085,21 +5184,21 @@
         <v>44652</v>
       </c>
       <c r="F104" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H104" s="1">
         <v>44652</v>
       </c>
       <c r="I104" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>7</v>
@@ -5111,21 +5210,21 @@
         <v>44713</v>
       </c>
       <c r="F105" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="H105" s="1">
         <v>44713</v>
       </c>
       <c r="I105" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>7</v>
@@ -5137,21 +5236,21 @@
         <v>44682</v>
       </c>
       <c r="F106" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H106" s="1">
         <v>44682</v>
       </c>
       <c r="I106" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>7</v>
@@ -5163,21 +5262,21 @@
         <v>44682</v>
       </c>
       <c r="F107" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="H107" s="1">
         <v>44682</v>
       </c>
       <c r="I107" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>7</v>
@@ -5188,22 +5287,25 @@
       <c r="D108" s="10">
         <v>44774</v>
       </c>
+      <c r="E108" t="s">
+        <v>347</v>
+      </c>
       <c r="F108" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H108" s="1">
         <v>44774</v>
       </c>
       <c r="I108" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>7</v>
@@ -5215,21 +5317,21 @@
         <v>44866</v>
       </c>
       <c r="F109" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="H109" s="1">
         <v>44866</v>
       </c>
       <c r="I109" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>7</v>
@@ -5241,99 +5343,102 @@
         <v>44896</v>
       </c>
       <c r="F110" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="G110" s="9" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="H110" s="1">
         <v>44896</v>
       </c>
       <c r="I110" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B111" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>349</v>
+        <v>356</v>
+      </c>
+      <c r="E111" t="s">
+        <v>35</v>
       </c>
       <c r="F111" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="G111" s="9" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="H111" s="1">
         <v>44621</v>
       </c>
       <c r="I111" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B112" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="F112" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="G112" s="9" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H112" s="1">
         <v>44805</v>
       </c>
       <c r="I112" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B113" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="F113" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="G113" s="9" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="H113" s="1">
         <v>44866</v>
       </c>
       <c r="I113" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B114" s="7" t="s">
         <v>15</v>
@@ -5345,276 +5450,282 @@
         <v>24</v>
       </c>
       <c r="F114" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="G114" s="9" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="H114" s="1">
         <v>44896</v>
       </c>
       <c r="I114" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B115" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="F115" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="G115" s="9" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H115" s="1">
         <v>44593</v>
       </c>
       <c r="I115" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B116" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="F116" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="G116" s="9" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="H116" s="1">
         <v>44652</v>
       </c>
       <c r="I116" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B117" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="F117" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="G117" s="9" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="H117" s="1">
         <v>44713</v>
       </c>
       <c r="I117" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B118" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>359</v>
+        <v>366</v>
+      </c>
+      <c r="E118" t="s">
+        <v>347</v>
       </c>
       <c r="F118" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="G118" s="9" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H118" s="1">
         <v>44774</v>
       </c>
       <c r="I118" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B119" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="F119" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="G119" s="9" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H119" s="1">
         <v>44593</v>
       </c>
       <c r="I119" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B120" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="F120" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="G120" s="9" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H120" s="1">
         <v>44593</v>
       </c>
       <c r="I120" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B121" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="F121" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="G121" s="9" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="H121" s="1">
         <v>44652</v>
       </c>
       <c r="I121" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B122" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="F122" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="G122" s="9" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="H122" s="1">
         <v>44713</v>
       </c>
       <c r="I122" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>362</v>
+        <v>369</v>
+      </c>
+      <c r="E123" t="s">
+        <v>347</v>
       </c>
       <c r="F123" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="G123" s="9" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H123" s="1">
         <v>44774</v>
       </c>
       <c r="I123" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B124" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="F124" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="G124" s="9" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H124" s="1">
         <v>44682</v>
       </c>
       <c r="I124" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>

--- a/reports/2022.02.22 tas-diff-add-del.xlsx
+++ b/reports/2022.02.22 tas-diff-add-del.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmpannone\Documents\GitHub\tas-diff-add-del\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3EEA7A3-0ADA-439D-AE15-F52F0C70C56C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{700A3DC8-F949-4704-9CFB-36BD37C9DBB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8772"/>
   </bookViews>
